--- a/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral.xlsx
+++ b/03_Sebrae/01_Relatório2022/Relatório_Sebrae2022/00_capítulo_PNADc/Planilha/PNAD_Resultados_Geral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPEI-CIGETS-UFG\Documents\GitHub\lapei\03_Sebrae\01_Relatório2022\Relatório_Sebrae2022\00_capítulo_PNADc\Planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A450BF-F8DD-45C4-94B9-2CD2D6A2219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F94DCFE-E1A4-4857-91BC-368FD9C5A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Ocupação" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="78">
   <si>
     <t>Posição de Ocupação</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tabela com todas as ocupações das mulheres por tipo de area </t>
-  </si>
-  <si>
-    <t>&amp;</t>
   </si>
   <si>
     <t>Tabela com os dados completos (total e porcentagem)</t>
@@ -340,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,17 +385,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -774,7 +787,7 @@
         <v>881679.27088444005</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="19">
         <f>D2+D3</f>
@@ -808,7 +821,7 @@
         <v>2393129.7565096198</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="19">
         <v>314119.64568776003</v>
@@ -843,7 +856,7 @@
         <v>3430271.03733104</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="19">
         <v>46856.695689430002</v>
@@ -855,7 +868,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="19">
         <f>SUM(L3:L5)</f>
@@ -864,7 +877,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -939,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,15 +963,19 @@
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -993,37 +1010,101 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="19">
         <v>17846.188868519999</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18">
+      <c r="D3" s="27">
+        <f>C3/C5</f>
+        <v>0.33892139566180485</v>
+      </c>
+      <c r="E3" s="19">
         <v>97821.983621070001</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18">
+      <c r="F3" s="27">
+        <f>E3/E5</f>
+        <v>0.41500609302722169</v>
+      </c>
+      <c r="G3" s="19">
         <v>248914.15640363001</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="27">
+        <f>G3/G5</f>
+        <v>0.49042065939091978</v>
+      </c>
+      <c r="I3" s="19">
+        <f>SUM(C3,E3,G3)</f>
+        <v>364582.32889321999</v>
+      </c>
+      <c r="J3" s="27">
+        <f>I3/I5</f>
+        <v>0.45806384017759133</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="19">
+        <v>34809.64548408</v>
+      </c>
+      <c r="D4" s="27">
+        <f>C4/C5</f>
+        <v>0.66107860433819521</v>
+      </c>
+      <c r="E4" s="19">
+        <v>137890.17883784001</v>
+      </c>
+      <c r="F4" s="27">
+        <f>E4/E5</f>
+        <v>0.58499390697277831</v>
+      </c>
+      <c r="G4" s="19">
+        <v>258638.19001009999</v>
+      </c>
+      <c r="H4" s="27">
+        <f>G4/G5</f>
+        <v>0.50957934060908017</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" ref="I4:I5" si="0">SUM(C4,E4,G4)</f>
+        <v>431338.01433201996</v>
+      </c>
+      <c r="J4" s="27">
+        <f>I4/I5</f>
+        <v>0.54193615982240861</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="25">
+        <f>SUM(C3:C4)</f>
+        <v>52655.834352599995</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="25">
+        <f>SUM(E3:E4)</f>
+        <v>235712.16245891002</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="25">
+        <f>SUM(G3:G4)</f>
+        <v>507552.34641373</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="25">
+        <f t="shared" si="0"/>
+        <v>795920.34322524001</v>
+      </c>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1032,39 +1113,95 @@
       <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>3797.0801678299999</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
+      <c r="D6" s="27">
+        <f>C6/C8</f>
+        <v>0.28815042386963619</v>
+      </c>
+      <c r="E6" s="19">
         <v>54077.695507119999</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="F6" s="27">
+        <f>E6/E8</f>
+        <v>0.36742370553020942</v>
+      </c>
+      <c r="G6" s="19">
         <v>170801.8670617</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="H6" s="27">
+        <f>G6/G8</f>
+        <v>0.4388255580500775</v>
+      </c>
+      <c r="I6" s="19">
+        <f>SUM(C6,E6,G6)</f>
+        <v>228676.64273665001</v>
+      </c>
+      <c r="J6" s="27">
+        <f>I6/I8</f>
+        <v>0.41609107620593128</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="C7" s="19">
+        <v>9380.3433349299994</v>
+      </c>
+      <c r="D7" s="27">
+        <f>C7/C8</f>
+        <v>0.71184957613036381</v>
+      </c>
+      <c r="E7" s="19">
+        <v>93103.051660740006</v>
+      </c>
+      <c r="F7" s="27">
+        <f>E7/E8</f>
+        <v>0.63257629446979058</v>
+      </c>
+      <c r="G7" s="19">
+        <v>218423.10839474</v>
+      </c>
+      <c r="H7" s="27">
+        <f>G7/G8</f>
+        <v>0.5611744419499225</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" ref="I7:I8" si="1">SUM(C7,E7,G7)</f>
+        <v>320906.50339040998</v>
+      </c>
+      <c r="J7" s="27">
+        <f>I7/I8</f>
+        <v>0.58390892379406856</v>
+      </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="25">
+        <f>SUM(C6:C7)</f>
+        <v>13177.423502759999</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="25">
+        <f>SUM(E6:E7)</f>
+        <v>147180.74716786001</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="25">
+        <f>SUM(G6:G7)</f>
+        <v>389224.97545644001</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="25">
+        <f t="shared" si="1"/>
+        <v>549583.14612706006</v>
+      </c>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1073,20 +1210,35 @@
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>3370.01899701</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
+      <c r="D9" s="27">
+        <f>C9/C11</f>
+        <v>0.28004794904715674</v>
+      </c>
+      <c r="E9" s="19">
         <v>45158.920134469998</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="F9" s="27">
+        <f>E9/E11</f>
+        <v>0.32084967590414459</v>
+      </c>
+      <c r="G9" s="19">
         <v>189693.31164868001</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="H9" s="27">
+        <f>G9/G11</f>
+        <v>0.4514011541152021</v>
+      </c>
+      <c r="I9" s="19">
+        <f>SUM(C9,E9,G9)</f>
+        <v>238222.25078016001</v>
+      </c>
+      <c r="J9" s="27">
+        <f>I9/I11</f>
+        <v>0.41573558715157505</v>
+      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1094,11 +1246,60 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="19">
+        <v>8663.7024013299997</v>
+      </c>
+      <c r="D10" s="27">
+        <f>C10/C11</f>
+        <v>0.7199520509528432</v>
+      </c>
+      <c r="E10" s="19">
+        <v>95588.986208939998</v>
+      </c>
+      <c r="F10" s="27">
+        <f>E10/E11</f>
+        <v>0.67915032409585541</v>
+      </c>
+      <c r="G10" s="19">
+        <v>230538.91398774</v>
+      </c>
+      <c r="H10" s="27">
+        <f>G10/G11</f>
+        <v>0.5485988458847979</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" ref="I10:I11" si="2">SUM(C10,E10,G10)</f>
+        <v>334791.60259800998</v>
+      </c>
+      <c r="J10" s="27">
+        <f>I10/I11</f>
+        <v>0.58426441284842501</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="25">
+        <f>SUM(C9:C10)</f>
+        <v>12033.72139834</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="25">
+        <f>SUM(E9:E10)</f>
+        <v>140747.90634341</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="25">
+        <f>SUM(G9:G10)</f>
+        <v>420232.22563642001</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="25">
+        <f t="shared" si="2"/>
+        <v>573013.85337816994</v>
+      </c>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1107,60 +1308,208 @@
       <c r="B12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>21843.407656070001</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="D12" s="27">
+        <f>C12/C14</f>
+        <v>0.28150523897887664</v>
+      </c>
+      <c r="E12" s="19">
         <v>117061.04642509999</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F12" s="27">
+        <f>E12/E14</f>
+        <v>0.32695104343786974</v>
+      </c>
+      <c r="G12" s="19">
         <v>449290.13990735001</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="H12" s="27">
+        <f>G12/G14</f>
+        <v>0.41750924864016276</v>
+      </c>
+      <c r="I12" s="19">
+        <f>SUM(C12,E12,G12)</f>
+        <v>588194.59398851998</v>
+      </c>
+      <c r="J12" s="27">
+        <f>I12/I14</f>
+        <v>0.38908097006101949</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="19">
+        <v>55751.62302721</v>
+      </c>
+      <c r="D13" s="27">
+        <f>C13/C14</f>
+        <v>0.71849476102112342</v>
+      </c>
+      <c r="E13" s="19">
+        <v>240977.40848916001</v>
+      </c>
+      <c r="F13" s="27">
+        <f>E13/E14</f>
+        <v>0.67304895656213026</v>
+      </c>
+      <c r="G13" s="19">
+        <v>626830.06909568002</v>
+      </c>
+      <c r="H13" s="27">
+        <f>G13/G14</f>
+        <v>0.58249075135983719</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" ref="I13:I14" si="3">SUM(C13,E13,G13)</f>
+        <v>923559.10061205004</v>
+      </c>
+      <c r="J13" s="27">
+        <f>I13/I14</f>
+        <v>0.61091902993898051</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="25">
+        <f>SUM(C12:C13)</f>
+        <v>77595.030683279998</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="25">
+        <f>SUM(E12:E13)</f>
+        <v>358038.45491426002</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="25">
+        <f>SUM(G12:G13)</f>
+        <v>1076120.2090030301</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="25">
+        <f t="shared" si="3"/>
+        <v>1511753.69460057</v>
+      </c>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
+      <c r="C15" s="19">
+        <f>SUM(C3,C6,C9,C12)</f>
+        <v>46856.695689430002</v>
+      </c>
+      <c r="D15" s="27">
+        <f>C15/(C16+C15)</f>
+        <v>0.29500785203029467</v>
+      </c>
+      <c r="E15" s="19">
+        <f>SUM(E3,E6,E9,E12)</f>
+        <v>314119.64568776003</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15/E17</f>
+        <v>0.35627427802930739</v>
+      </c>
+      <c r="G15" s="19">
+        <f>SUM(G3,G6,G9,G12)</f>
+        <v>1058699.47502136</v>
+      </c>
+      <c r="H15" s="27">
+        <f>G15/G17</f>
+        <v>0.44239117086800733</v>
+      </c>
+      <c r="I15" s="19">
+        <f>SUM(C15,E15,G15)</f>
+        <v>1419675.8163985501</v>
+      </c>
+      <c r="J15" s="27">
+        <f>I15/I17</f>
+        <v>0.41346075291770812</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="30"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="19">
+        <f>SUM(C4,C7,C11,C13)</f>
+        <v>111975.33324456</v>
+      </c>
+      <c r="D16" s="27">
+        <f>C16/(C15+C16)</f>
+        <v>0.70499214796970533</v>
+      </c>
+      <c r="E16" s="19">
+        <f>SUM(E4,E7,E10,E13)</f>
+        <v>567559.62519667996</v>
+      </c>
+      <c r="F16" s="27">
+        <f>E16/E17</f>
+        <v>0.64372572197069255</v>
+      </c>
+      <c r="G16" s="19">
+        <f>SUM(G4,G7,G10,G13)</f>
+        <v>1334430.28148826</v>
+      </c>
+      <c r="H16" s="27">
+        <f>G16/G17</f>
+        <v>0.55760882913199272</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" ref="I16:I17" si="4">SUM(C16,E16,G16)</f>
+        <v>2013965.2399295</v>
+      </c>
+      <c r="J16" s="27">
+        <f>I16/I17</f>
+        <v>0.58653924708229199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="C17" s="19">
+        <f>SUM(C15:C16)</f>
+        <v>158832.02893398999</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19">
+        <f>SUM(E15:E16)</f>
+        <v>881679.27088444005</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="19">
+        <f>SUM(G15:G16)</f>
+        <v>2393129.7565096198</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="19">
+        <f t="shared" si="4"/>
+        <v>3433641.0563280499</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1173,172 +1522,328 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
+        <v>17846.188868519999</v>
+      </c>
+      <c r="D23" s="19">
+        <v>97821.983621070001</v>
+      </c>
+      <c r="E23" s="21">
+        <f>SUM(C23:D23)</f>
+        <v>115668.17248959</v>
+      </c>
+      <c r="F23" s="20">
+        <f>E23/E27</f>
+        <v>0.32043145001773526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="19">
+        <v>3797.0801678299999</v>
+      </c>
+      <c r="D24" s="19">
+        <v>54077.695507119999</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" ref="E24:E27" si="5">SUM(C24:D24)</f>
+        <v>57874.775674949997</v>
+      </c>
+      <c r="F24" s="20">
+        <f>E24/E27</f>
+        <v>0.16032844549907968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="19">
+        <v>3370.01899701</v>
+      </c>
+      <c r="D25" s="19">
+        <v>45158.920134469998</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="5"/>
+        <v>48528.939131480001</v>
+      </c>
+      <c r="F25" s="20">
+        <f>E25/E27</f>
+        <v>0.13443800484633792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="19">
+        <v>21843.407656070001</v>
+      </c>
+      <c r="D26" s="19">
+        <v>117061.04642509999</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="5"/>
+        <v>138904.45408117</v>
+      </c>
+      <c r="F26" s="20">
+        <f>E26/E27</f>
+        <v>0.38480209963684708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="C27" s="21">
+        <f>SUM(C23:C26)</f>
+        <v>46856.695689430002</v>
+      </c>
+      <c r="D27" s="21">
+        <f>SUM(D23:D26)</f>
+        <v>314119.64568776003</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="5"/>
+        <v>360976.34137719002</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19">
+        <v>17846.188868519999</v>
+      </c>
+      <c r="D33" s="27">
+        <f>C33/I33</f>
+        <v>4.8949681468919592E-2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>97821.983621070001</v>
+      </c>
+      <c r="F33" s="27">
+        <f>E33/I33</f>
+        <v>0.26831246571393869</v>
+      </c>
+      <c r="G33" s="19">
+        <v>248914.15640363001</v>
+      </c>
+      <c r="H33" s="27">
+        <f>G33/I33</f>
+        <v>0.68273785281714183</v>
+      </c>
+      <c r="I33" s="19">
+        <f>SUM(C33,E33,G33)</f>
+        <v>364582.32889321999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="19">
+        <v>3797.0801678299999</v>
+      </c>
+      <c r="D34" s="27">
+        <f>C34/I34</f>
+        <v>1.6604582446152212E-2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>54077.695507119999</v>
+      </c>
+      <c r="F34" s="27">
+        <f>E34/I34</f>
+        <v>0.23648106277910194</v>
+      </c>
+      <c r="G34" s="19">
+        <v>170801.8670617</v>
+      </c>
+      <c r="H34" s="27">
+        <f>G34/I34</f>
+        <v>0.74691435477474577</v>
+      </c>
+      <c r="I34" s="19">
+        <f>SUM(C34,E34,G34)</f>
+        <v>228676.64273665001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>3370.01899701</v>
+      </c>
+      <c r="D35" s="27">
+        <f>C35/I35</f>
+        <v>1.4146533272914014E-2</v>
+      </c>
+      <c r="E35" s="19">
+        <v>45158.920134469998</v>
+      </c>
+      <c r="F35" s="27">
+        <f>E35/I35</f>
+        <v>0.1895663397796718</v>
+      </c>
+      <c r="G35" s="19">
+        <v>189693.31164868001</v>
+      </c>
+      <c r="H35" s="27">
+        <f>G35/I35</f>
+        <v>0.79628712694741421</v>
+      </c>
+      <c r="I35" s="19">
+        <f>SUM(C35,E35,G35)</f>
+        <v>238222.25078016001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
+        <v>21843.407656070001</v>
+      </c>
+      <c r="D36" s="27">
+        <f>C36/I36</f>
+        <v>3.7136362488391604E-2</v>
+      </c>
+      <c r="E36" s="19">
+        <v>117061.04642509999</v>
+      </c>
+      <c r="F36" s="27">
+        <f>E36/I36</f>
+        <v>0.1990175489905722</v>
+      </c>
+      <c r="G36" s="19">
+        <v>449290.13990735001</v>
+      </c>
+      <c r="H36" s="27">
+        <f>G36/I36</f>
+        <v>0.7638460885210363</v>
+      </c>
+      <c r="I36" s="19">
+        <f>SUM(C36,E36,G36)</f>
+        <v>588194.59398851998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="B37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <f>SUM(C33:C36)</f>
+        <v>46856.695689430002</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="21">
+        <f>SUM(E33:E36)</f>
+        <v>314119.64568776003</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26">
+        <f>SUM(G33:G36)</f>
+        <v>1058699.47502136</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="19">
+        <f>SUM(C37,E37,G37)</f>
+        <v>1419675.8163985501</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1346,174 +1851,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>17846.188868519999</v>
+      </c>
+      <c r="D3" s="27">
+        <f>C3/(C4+C3)</f>
+        <v>0.33892139566180485</v>
+      </c>
+      <c r="E3" s="19">
+        <v>97821.983621070001</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3/(E4+E3)</f>
+        <v>0.41500609302722169</v>
+      </c>
+      <c r="G3" s="19">
+        <v>248914.15640363001</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3/(G4+G3)</f>
+        <v>0.49042065939091978</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" ref="I3:I12" si="0">SUM(C3,E3,G3)</f>
+        <v>364582.32889321999</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19">
+        <v>34809.64548408</v>
+      </c>
+      <c r="D4" s="27">
+        <f>C4/(C3+C4)</f>
+        <v>0.66107860433819521</v>
+      </c>
+      <c r="E4" s="19">
+        <v>137890.17883784001</v>
+      </c>
+      <c r="F4" s="3">
+        <f>E4/(E3+E4)</f>
+        <v>0.58499390697277831</v>
+      </c>
+      <c r="G4" s="19">
+        <v>258638.19001009999</v>
+      </c>
+      <c r="H4" s="3">
+        <f>G4/(G3+G4)</f>
+        <v>0.50957934060908017</v>
+      </c>
+      <c r="I4" s="26">
+        <f t="shared" si="0"/>
+        <v>431338.01433201996</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3797.0801678299999</v>
+      </c>
+      <c r="D5" s="27">
+        <f>C5/(C6+C5)</f>
+        <v>0.28815042386963619</v>
+      </c>
+      <c r="E5" s="19">
+        <v>54077.695507119999</v>
+      </c>
+      <c r="F5" s="3">
+        <f>E5/(E6+E5)</f>
+        <v>0.36742370553020942</v>
+      </c>
+      <c r="G5" s="19">
+        <v>170801.8670617</v>
+      </c>
+      <c r="H5" s="3">
+        <f>G5/(G6+G5)</f>
+        <v>0.4388255580500775</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="0"/>
+        <v>228676.64273665001</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19">
+        <v>9380.3433349299994</v>
+      </c>
+      <c r="D6" s="27">
+        <f>C6/(C5+C6)</f>
+        <v>0.71184957613036381</v>
+      </c>
+      <c r="E6" s="19">
+        <v>93103.051660740006</v>
+      </c>
+      <c r="F6" s="3">
+        <f>E6/(E5+E6)</f>
+        <v>0.63257629446979058</v>
+      </c>
+      <c r="G6" s="19">
+        <v>218423.10839474</v>
+      </c>
+      <c r="H6" s="3">
+        <f>G6/(G5+G6)</f>
+        <v>0.5611744419499225</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="0"/>
+        <v>320906.50339040998</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>3370.01899701</v>
+      </c>
+      <c r="D7" s="27">
+        <f>C7/(C8+C7)</f>
+        <v>0.28004794904715674</v>
+      </c>
+      <c r="E7" s="19">
+        <v>45158.920134469998</v>
+      </c>
+      <c r="F7" s="3">
+        <f>E7/(E8+E7)</f>
+        <v>0.32084967590414459</v>
+      </c>
+      <c r="G7" s="19">
+        <v>189693.31164868001</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7/(G8+G7)</f>
+        <v>0.4514011541152021</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>238222.25078016001</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>8663.7024013299997</v>
+      </c>
+      <c r="D8" s="27">
+        <f>C8/(C7+C8)</f>
+        <v>0.7199520509528432</v>
+      </c>
+      <c r="E8" s="19">
+        <v>95588.986208939998</v>
+      </c>
+      <c r="F8" s="3">
+        <f>E8/(E9+E8)</f>
+        <v>0.44951315090293842</v>
+      </c>
+      <c r="G8" s="19">
+        <v>230538.91398774</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8/(G7+G8)</f>
+        <v>0.5485988458847979</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>334791.60259800998</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>21843.407656070001</v>
+      </c>
+      <c r="D9" s="27">
+        <f>C9/(C10+C9)</f>
+        <v>0.28150523897887664</v>
+      </c>
+      <c r="E9" s="19">
+        <v>117061.04642509999</v>
+      </c>
+      <c r="F9" s="3">
+        <f>E9/(E10+E9)</f>
+        <v>0.32695104343786974</v>
+      </c>
+      <c r="G9" s="19">
+        <v>449290.13990735001</v>
+      </c>
+      <c r="H9" s="3">
+        <f>G9/(G10+G9)</f>
+        <v>0.41750924864016276</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>588194.59398851998</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19">
+        <v>55751.62302721</v>
+      </c>
+      <c r="D10" s="27">
+        <f>C10/(C9+C10)</f>
+        <v>0.71849476102112342</v>
+      </c>
+      <c r="E10" s="19">
+        <v>240977.40848916001</v>
+      </c>
+      <c r="F10" s="3">
+        <f>E10/(E9+E10)</f>
+        <v>0.67304895656213026</v>
+      </c>
+      <c r="G10" s="19">
+        <v>626830.06909568002</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/(G9+G10)</f>
+        <v>0.58249075135983719</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
+        <v>923559.10061205004</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUM(C3,C5,C7,C9)</f>
+        <v>46856.695689430002</v>
+      </c>
+      <c r="D11" s="27">
+        <f>C11/(C12+C11)</f>
+        <v>0.30140286818898332</v>
+      </c>
+      <c r="E11" s="19">
+        <f>SUM(E3,E5,E7,E9)</f>
+        <v>314119.64568776003</v>
+      </c>
+      <c r="F11" s="3">
+        <f>E11/(E12+E11)</f>
+        <v>0.35627427802930739</v>
+      </c>
+      <c r="G11" s="26">
+        <f>SUM(G3,G5,G7,G9)</f>
+        <v>1058699.47502136</v>
+      </c>
+      <c r="H11" s="3">
+        <f>G11/(G12+G11)</f>
+        <v>0.44239117086800733</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="0"/>
+        <v>1419675.8163985501</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19">
+        <f>SUM(C4,C6,C8,C10)</f>
+        <v>108605.31424755001</v>
+      </c>
+      <c r="D12" s="27">
+        <f>C12/(C11+C12)</f>
+        <v>0.69859713181101668</v>
+      </c>
+      <c r="E12" s="19">
+        <f>SUM(E4,E6,E8,E10)</f>
+        <v>567559.62519667996</v>
+      </c>
+      <c r="F12" s="3">
+        <f>E12/(E11+E12)</f>
+        <v>0.64372572197069255</v>
+      </c>
+      <c r="G12" s="26">
+        <f>SUM(G4,G6,G8,G10)</f>
+        <v>1334430.28148826</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/(G11+G12)</f>
+        <v>0.55760882913199272</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>2010595.22093249</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1523,60 +2257,62 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
+      <c r="A21" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>39</v>
+      <c r="A23" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1587,6 +2323,7 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -1596,8 +2333,8 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
+      <c r="A25" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1608,6 +2345,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +2355,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
@@ -1629,6 +2367,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1638,29 +2377,29 @@
       <c r="F28" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,7 +2410,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1685,13 +2424,13 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1707,7 +2446,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1718,7 +2457,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1729,7 +2468,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -1739,7 +2478,7 @@
       <c r="E51" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A1:D1"/>
@@ -1748,6 +2487,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1776,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1818,7 +2562,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1830,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1847,7 +2591,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1871,7 +2615,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1895,7 +2639,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1919,7 +2663,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1943,7 +2687,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1981,36 +2725,36 @@
       <c r="I12" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2020,7 +2764,7 @@
     </row>
     <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2030,7 +2774,7 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2061,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2090,7 +2834,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2098,7 +2842,7 @@
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2106,7 +2850,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2114,7 +2858,7 @@
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
@@ -2122,7 +2866,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2130,7 +2874,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2138,7 +2882,7 @@
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -2146,7 +2890,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2154,7 +2898,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2162,7 +2906,7 @@
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -2178,7 +2922,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2204,7 +2948,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2219,7 +2963,7 @@
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -2234,7 +2978,7 @@
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2282,7 +3026,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2311,7 +3055,7 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2319,7 +3063,7 @@
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2327,7 +3071,7 @@
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2335,7 +3079,7 @@
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1</v>
@@ -2343,7 +3087,7 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2351,7 +3095,7 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -2359,7 +3103,7 @@
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -2367,7 +3111,7 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -2375,7 +3119,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2383,7 +3127,7 @@
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>1</v>
@@ -2399,7 +3143,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2422,7 +3166,7 @@
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2435,7 +3179,7 @@
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2448,7 +3192,7 @@
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2493,7 +3237,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2524,8 +3268,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>67</v>
+      <c r="A2" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2540,7 +3284,7 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2568,8 +3312,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>74</v>
+      <c r="A5" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2584,7 +3328,7 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +3356,8 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>73</v>
+      <c r="A8" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -2628,7 +3372,7 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="34"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +3400,7 @@
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2672,7 +3416,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2724,7 +3468,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2756,7 +3500,7 @@
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2770,7 +3514,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2784,7 +3528,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
